--- a/templates/Excel/ST1_Maintainance.xlsx
+++ b/templates/Excel/ST1_Maintainance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,52 +488,184 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-22T18:35</t>
+          <t>2025-03-26T12:37</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIFT_2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>Suriya</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>suriya</t>
+          <t>Suriya</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>suriya</t>
+          <t>Suriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:37</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:37</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Suriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>t</t>
         </is>
       </c>
     </row>
